--- a/lignes.xlsx
+++ b/lignes.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsraelPapuchis\OneDrive\INSA\3TC\2do_semestre\PTIR\26032020\PIR_UE\PIR_UE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsraelPapuchis\OneDrive\INSA\3TC\2do_semestre\PTIR\PIR-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DF34DB-E119-4AA4-97E0-136BFE67A859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285FE1BD-517C-4C56-8C10-E05C93AC24A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{86F50E36-EC87-49B0-9046-7AED0F72F870}"/>
+    <workbookView xWindow="13800" yWindow="1884" windowWidth="9240" windowHeight="9024" activeTab="1" xr2:uid="{86F50E36-EC87-49B0-9046-7AED0F72F870}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="UE" sheetId="1" r:id="rId1"/>
+    <sheet name="eNodeB" sheetId="4" r:id="rId2"/>
+    <sheet name="EPC" sheetId="3" r:id="rId3"/>
+    <sheet name="Terms" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="177">
   <si>
     <t>Description</t>
   </si>
@@ -441,10 +443,223 @@
     <t>Configuration(Messages affichés par UE)</t>
   </si>
   <si>
-    <t>Messages (Envoi et réception de messages)</t>
-  </si>
-  <si>
     <t>? Des paquets de controle?</t>
+  </si>
+  <si>
+    <r>
+      <t>Messages (Envoi et réception de messages de l'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) [ue.log] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Messages (Envoi et réception de messages de l'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eNodeB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) [enb.log]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Messages (Envoi et réception de messages de l'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) [epc.log]</t>
+    </r>
+  </si>
+  <si>
+    <t>SIB payload - Tx systemInformationBlockType1 (15 B)</t>
+  </si>
+  <si>
+    <t>SIB payload - Tx systemInformation (27 B)</t>
+  </si>
+  <si>
+    <t>Sending s1SetupRequest to MME</t>
+  </si>
+  <si>
+    <t>Received S1AP PDU</t>
+  </si>
+  <si>
+    <t>S1SetupResponse</t>
+  </si>
+  <si>
+    <t>Attach request Response</t>
+  </si>
+  <si>
+    <t>Rx SRB0 PDU</t>
+  </si>
+  <si>
+    <t>SRB0 - rnti=0x4a - Tx rrcConnectionSetup (21 B)</t>
+  </si>
+  <si>
+    <t>Rx SRB1 PDU</t>
+  </si>
+  <si>
+    <t>Sending InitialUEMessage for RNTI:0x4a</t>
+  </si>
+  <si>
+    <t>InitialUEMessage</t>
+  </si>
+  <si>
+    <t>SRB1 - rnti=0x4a - Tx dlInformationTransfer (7 B)</t>
+  </si>
+  <si>
+    <t>Received S1AP msg. Size: 49</t>
+  </si>
+  <si>
+    <t>Sending S1 Setup Response</t>
+  </si>
+  <si>
+    <t>Received S1AP msg. Size: 87</t>
+  </si>
+  <si>
+    <t>S1 Setup Request</t>
+  </si>
+  <si>
+    <t>Setup Response</t>
+  </si>
+  <si>
+    <t>Initial UE Message(Attach request)</t>
+  </si>
+  <si>
+    <t>Received S1AP msg. Size: 57</t>
+  </si>
+  <si>
+    <t>Received Identity Response</t>
+  </si>
+  <si>
+    <t>Received Authentication Response</t>
+  </si>
+  <si>
+    <t>Received S1AP msg. Size: 54</t>
+  </si>
+  <si>
+    <t>Received Security Mode Complete</t>
+  </si>
+  <si>
+    <t>Sending Create Session Request.</t>
+  </si>
+  <si>
+    <t>Create Session Request</t>
+  </si>
+  <si>
+    <t>Received S1AP msg. Size: 59</t>
+  </si>
+  <si>
+    <t>Received S1AP msg. Size: 38</t>
+  </si>
+  <si>
+    <t>Initial Context Setup Response</t>
+  </si>
+  <si>
+    <t>Received Attach Complete</t>
+  </si>
+  <si>
+    <t>S1SetupRequest</t>
+  </si>
+  <si>
+    <t>DownlinkNASTransport (ACK)</t>
+  </si>
+  <si>
+    <t>P-GW</t>
+  </si>
+  <si>
+    <t>Packing Identity Request</t>
+  </si>
+  <si>
+    <t>HSS</t>
+  </si>
+  <si>
+    <t>Packing Authentication Request</t>
+  </si>
+  <si>
+    <t>Authentication Request</t>
+  </si>
+  <si>
+    <t>Packing Security Mode Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sent Initial Context Setup Request. E-RAB id 5 </t>
+  </si>
+  <si>
+    <t>Initial Context SetUp Request</t>
+  </si>
+  <si>
+    <t>SRB1 - Rx ulInformationTransfer (14 B)</t>
+  </si>
+  <si>
+    <t>SRB1 - rnti=0x4a - Tx dlInformationTransfer (40 B)</t>
+  </si>
+  <si>
+    <t>Received RRC SDU</t>
+  </si>
+  <si>
+    <t>SRB1 - rnti=0x4a - Tx dlInformationTransfer (17 B)</t>
+  </si>
+  <si>
+    <t>SRB1 - Rx ulInformationTransfer (11 B)</t>
+  </si>
+  <si>
+    <t>InitialContextSetupRequest</t>
+  </si>
+  <si>
+    <t>SRB1 - rnti=0x4a - Tx securityModeCommand (4 B)</t>
   </si>
 </sst>
 </file>
@@ -519,7 +734,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,8 +807,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -653,12 +874,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -701,15 +933,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -786,6 +1009,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1109,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3774E4-E860-4C87-9E58-933E83AB5432}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="U4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,24 +1374,44 @@
     <col min="8" max="8" width="10.109375" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" customWidth="1"/>
     <col min="10" max="10" width="42.88671875" customWidth="1"/>
+    <col min="14" max="14" width="47.77734375" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" customWidth="1"/>
+    <col min="17" max="17" width="40.33203125" customWidth="1"/>
+    <col min="21" max="21" width="48.6640625" customWidth="1"/>
+    <col min="24" max="24" width="39.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="F1" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="F1" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
+      <c r="M1" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="65"/>
+      <c r="T1" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="65"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>67</v>
       </c>
@@ -1167,31 +1439,75 @@
       <c r="J2" s="17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="27">
+      <c r="M2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="F3" s="24" t="s">
+      <c r="D3" s="26"/>
+      <c r="F3" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="32">
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="M3" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="62"/>
+      <c r="T3" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="62"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
         <v>17</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1204,21 +1520,51 @@
       <c r="G4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="20" t="s">
         <v>56</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
+      <c r="M4" s="16">
+        <v>12</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" s="16">
+        <v>32</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
         <v>18</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1231,54 +1577,114 @@
       <c r="G5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="23" t="s">
+      <c r="H5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>56</v>
       </c>
       <c r="J5" s="19" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="40">
+      <c r="M5" s="16">
+        <v>63</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="T5" s="16">
+        <v>66</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="X5" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="37">
         <v>19</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="41"/>
+      <c r="D6" s="38"/>
       <c r="F6" s="16">
         <v>70</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="23" t="s">
+      <c r="H6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>56</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
+      <c r="M6" s="16">
+        <v>180</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="T6" s="16">
+        <v>70</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="V6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="W6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="X6" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="35">
         <v>74</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="36"/>
       <c r="F7" s="16">
         <v>110</v>
       </c>
@@ -1294,16 +1700,46 @@
       <c r="J7" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="40">
+      <c r="M7" s="16">
+        <v>184</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="T7" s="16">
+        <v>110</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="W7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="37">
         <v>76</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="F8" s="16">
         <v>114</v>
       </c>
@@ -1319,58 +1755,124 @@
       <c r="J8" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="42">
+      <c r="M8" s="16">
+        <v>114</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="3"/>
+      <c r="T8" s="16">
+        <v>114</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="W8" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="39">
         <v>84</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="F9" s="24" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="F9" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="46">
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
+      <c r="M9" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="62"/>
+      <c r="T9" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="62"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="43">
         <v>85</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
       <c r="F10" s="16">
         <v>134</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="20" t="s">
         <v>57</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="46">
+      <c r="M10" s="16">
+        <v>5810</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="T10" s="16">
+        <v>134</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="X10" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="43">
         <v>193</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
       <c r="F11" s="16">
         <v>169</v>
       </c>
@@ -1386,33 +1888,77 @@
       <c r="J11" s="19" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+      <c r="M11" s="16">
+        <v>6232</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="T11" s="16">
+        <v>169</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="X11" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="39">
         <v>194</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="F12" s="24" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="F12" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="48">
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+      <c r="M12" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="62"/>
+      <c r="T12" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="62"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="45">
         <v>265</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
       <c r="F13" s="16">
         <v>186</v>
       </c>
@@ -1428,12 +1974,42 @@
       <c r="J13" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="51">
+      <c r="M13" s="16">
+        <v>8318</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="T13" s="16">
+        <v>186</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="48">
         <v>318</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="49" t="s">
         <v>123</v>
       </c>
       <c r="C14" s="11"/>
@@ -1453,12 +2029,42 @@
       <c r="J14" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="51">
+      <c r="M14" s="16">
+        <v>260</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T14" s="16">
+        <v>260</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="48">
         <v>321</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="49" t="s">
         <v>124</v>
       </c>
       <c r="C15" s="11"/>
@@ -1478,16 +2084,46 @@
       <c r="J15" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="53">
+      <c r="M15" s="16">
+        <v>266</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T15" s="16">
+        <v>266</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="50">
         <v>376</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
       <c r="F16" s="16">
         <v>311</v>
       </c>
@@ -1503,16 +2139,46 @@
       <c r="J16" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="53">
+      <c r="M16" s="16">
+        <v>311</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T16" s="16">
+        <v>311</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="50">
         <v>384</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
       <c r="F17" s="16">
         <v>322</v>
       </c>
@@ -1528,17 +2194,47 @@
       <c r="J17" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="58">
+      <c r="M17" s="16">
+        <v>322</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="T17" s="16">
+        <v>322</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="55">
         <v>430</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="F18" s="23">
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="F18" s="20">
         <v>338</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -1551,19 +2247,49 @@
         <v>109</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+        <v>127</v>
+      </c>
+      <c r="M18" s="20">
+        <v>338</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T18" s="20">
+        <v>338</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
         <v>530</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="F19" s="23">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="F19" s="20">
         <v>355</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -1578,17 +2304,47 @@
       <c r="J19" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
+      <c r="M19" s="20">
+        <v>355</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T19" s="20">
+        <v>355</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="W19" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="27">
         <v>542</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="29"/>
-      <c r="F20" s="23">
+      <c r="C20" s="28"/>
+      <c r="D20" s="26"/>
+      <c r="F20" s="20">
         <v>371</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -1603,17 +2359,47 @@
       <c r="J20" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="42">
+      <c r="M20" s="20">
+        <v>371</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T20" s="20">
+        <v>371</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V20" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="W20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="39">
         <v>552</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="44"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="12"/>
-      <c r="F21" s="23">
+      <c r="F21" s="20">
         <v>385</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -1628,33 +2414,77 @@
       <c r="J21" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="34">
+      <c r="M21" s="20">
+        <v>385</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T21" s="20">
+        <v>385</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V21" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="31">
         <v>553</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="2"/>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="30">
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="62"/>
+      <c r="M22" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="62"/>
+      <c r="T22" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="62"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="27">
         <v>554</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="26"/>
       <c r="F23" s="16">
         <v>429</v>
       </c>
@@ -1670,8 +2500,38 @@
       <c r="J23" s="19" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M23" s="16">
+        <v>429</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="T23" s="16">
+        <v>429</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V23" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="W23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="X23" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1691,8 +2551,38 @@
       <c r="J24" s="19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M24" s="16">
+        <v>441</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q24" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T24" s="16">
+        <v>441</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W24" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="X24" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F25" s="16">
         <v>490</v>
       </c>
@@ -1708,25 +2598,85 @@
       <c r="J25" s="19" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F26" s="23">
+      <c r="M25" s="16">
+        <v>490</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="T25" s="16">
+        <v>490</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="W25" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="X25" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F26" s="20">
         <v>516</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="23" t="s">
+      <c r="H26" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="20" t="s">
         <v>57</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M26" s="20">
+        <v>516</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="T26" s="20">
+        <v>516</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V26" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="X26" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F27" s="16">
         <v>523</v>
       </c>
@@ -1742,8 +2692,38 @@
       <c r="J27" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M27" s="16">
+        <v>523</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="T27" s="16">
+        <v>523</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="V27" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="W27" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F28" s="16">
         <v>543</v>
       </c>
@@ -1753,19 +2733,59 @@
       <c r="H28" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="20" t="s">
         <v>57</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="M28" s="16">
+        <v>543</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P28" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T28" s="16">
+        <v>543</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V28" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W28" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="16">
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="M22:Q22"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F22:J22"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
   </mergeCells>
@@ -1775,6 +2795,997 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117DF1EA-6BE1-4C7F-B199-5CE7D0551E2C}">
+  <dimension ref="B1:F43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="45.77734375" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="16">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="16">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="16">
+        <v>180</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="16">
+        <v>184</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="16"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="16">
+        <v>5810</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="16">
+        <v>6232</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="16">
+        <v>8318</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="66">
+        <v>8348</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="66">
+        <v>8354</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="66">
+        <v>8358</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="66">
+        <v>8604</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="69">
+        <v>8628</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="68">
+        <v>8640</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="68">
+        <v>8889</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="68">
+        <v>8925</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="68">
+        <v>9172</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="68">
+        <v>9233</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="68">
+        <v>9266</v>
+      </c>
+      <c r="C24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="16">
+        <v>260</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="16">
+        <v>266</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="16">
+        <v>311</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="16">
+        <v>322</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="20">
+        <v>338</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="20">
+        <v>355</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="20">
+        <v>371</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="20">
+        <v>385</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="16">
+        <v>429</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="16">
+        <v>441</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="16">
+        <v>490</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="20">
+        <v>516</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="16">
+        <v>523</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="16">
+        <v>543</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80E785F-0673-4740-B776-36D78552941A}">
+  <dimension ref="B1:F28"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="46.5546875" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="16">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="16">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="16">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="66">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="16">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="66">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="16">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="66">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="66">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
+        <v>80</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="16">
+        <v>88</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="16">
+        <v>107</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="16">
+        <v>109</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="16">
+        <v>114</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="20"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="16"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="16"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="16"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="20"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="16"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="16"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B22:F22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78992087-EBF9-4250-BF05-9C7E8E4D3842}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -2001,7 +4012,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="59" t="s">
         <v>104</v>
       </c>
       <c r="B21" s="3" t="s">

--- a/lignes.xlsx
+++ b/lignes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsraelPapuchis\OneDrive\INSA\3TC\2do_semestre\PTIR\PIR-7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador.000\GitHub\PIR-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285FE1BD-517C-4C56-8C10-E05C93AC24A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BBB13C-D171-47BC-9DAE-55E05992CD4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="1884" windowWidth="9240" windowHeight="9024" activeTab="1" xr2:uid="{86F50E36-EC87-49B0-9046-7AED0F72F870}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{86F50E36-EC87-49B0-9046-7AED0F72F870}"/>
   </bookViews>
   <sheets>
     <sheet name="UE" sheetId="1" r:id="rId1"/>
@@ -1009,6 +1009,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1027,20 +1038,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1065,7 +1065,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1367,51 +1367,51 @@
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="70.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="42.88671875" customWidth="1"/>
-    <col min="14" max="14" width="47.77734375" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" customWidth="1"/>
-    <col min="16" max="16" width="16.5546875" customWidth="1"/>
-    <col min="17" max="17" width="40.33203125" customWidth="1"/>
-    <col min="21" max="21" width="48.6640625" customWidth="1"/>
-    <col min="24" max="24" width="39.21875" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" customWidth="1"/>
+    <col min="14" max="14" width="47.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="40.28515625" customWidth="1"/>
+    <col min="21" max="21" width="48.7109375" customWidth="1"/>
+    <col min="24" max="24" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="F1" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
-      <c r="M1" s="63" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="M1" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="65"/>
-      <c r="T1" s="63" t="s">
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="70"/>
+      <c r="T1" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="65"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="70"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>67</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>15</v>
       </c>
@@ -1481,29 +1481,29 @@
         <v>69</v>
       </c>
       <c r="D3" s="26"/>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="M3" s="60" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+      <c r="M3" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="62"/>
-      <c r="T3" s="60" t="s">
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
+      <c r="T3" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="62"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="67"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>17</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>18</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>19</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>74</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>76</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>84</v>
       </c>
@@ -1787,29 +1787,29 @@
       </c>
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
-      <c r="M9" s="60" t="s">
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="M9" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="62"/>
-      <c r="T9" s="60" t="s">
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="67"/>
+      <c r="T9" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="62"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="67"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="43">
         <v>85</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
         <v>193</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>194</v>
       </c>
@@ -1928,29 +1928,29 @@
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
-      <c r="M12" s="60" t="s">
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
+      <c r="M12" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="62"/>
-      <c r="T12" s="60" t="s">
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="67"/>
+      <c r="T12" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="62"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="67"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="45">
         <v>265</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="48">
         <v>318</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="48">
         <v>321</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="50">
         <v>376</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="50">
         <v>384</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>430</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>530</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>542</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>552</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>553</v>
       </c>
@@ -2454,29 +2454,29 @@
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="2"/>
-      <c r="F22" s="60" t="s">
+      <c r="F22" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="62"/>
-      <c r="M22" s="60" t="s">
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="67"/>
+      <c r="M22" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="62"/>
-      <c r="T22" s="60" t="s">
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="67"/>
+      <c r="T22" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="62"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="67"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>554</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2582,7 +2582,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F25" s="16">
         <v>490</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F26" s="20">
         <v>516</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F27" s="16">
         <v>523</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F28" s="16">
         <v>543</v>
       </c>
@@ -2772,6 +2772,8 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:J1"/>
     <mergeCell ref="F22:J22"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="T3:X3"/>
@@ -2786,8 +2788,6 @@
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="F12:J12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2798,26 +2798,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117DF1EA-6BE1-4C7F-B199-5CE7D0551E2C}">
   <dimension ref="B1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="45.77734375" customWidth="1"/>
-    <col min="6" max="6" width="39.109375" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="63" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>67</v>
       </c>
@@ -2834,16 +2834,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="60" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="16">
         <v>12</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>63</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>180</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>184</v>
       </c>
@@ -2911,23 +2911,23 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
       <c r="C8" s="3"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="60" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="67"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>5810</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>6232</v>
       </c>
@@ -2961,16 +2961,16 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="60" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="67"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <v>8318</v>
       </c>
@@ -2987,120 +2987,120 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="66">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="60">
         <v>8348</v>
       </c>
       <c r="C14" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="66" t="s">
+      <c r="D14" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="60" t="s">
         <v>86</v>
       </c>
       <c r="F14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="66">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="60">
         <v>8354</v>
       </c>
       <c r="C15" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="66" t="s">
+      <c r="D15" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="60" t="s">
         <v>57</v>
       </c>
       <c r="F15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="66">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="60">
         <v>8358</v>
       </c>
       <c r="C16" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="66" t="s">
+      <c r="D16" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="60" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="66">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="60">
         <v>8604</v>
       </c>
       <c r="C17" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="66" t="s">
+      <c r="D17" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="60" t="s">
         <v>57</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="69">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="63">
         <v>8628</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="68">
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="62">
         <v>8640</v>
       </c>
       <c r="C19" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="68" t="s">
+      <c r="D19" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="62" t="s">
         <v>56</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="68">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="62">
         <v>8889</v>
       </c>
       <c r="C20" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="68" t="s">
+      <c r="D20" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="62" t="s">
         <v>57</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="68">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="62">
         <v>8925</v>
       </c>
       <c r="C21" t="s">
@@ -3116,49 +3116,49 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="68">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="62">
         <v>9172</v>
       </c>
       <c r="C22" t="s">
         <v>174</v>
       </c>
-      <c r="D22" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="68" t="s">
+      <c r="D22" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="62" t="s">
         <v>57</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="68">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="62">
         <v>9233</v>
       </c>
       <c r="C23" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="68" t="s">
+      <c r="D23" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="62" t="s">
         <v>57</v>
       </c>
       <c r="F23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="68">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="62">
         <v>9266</v>
       </c>
       <c r="C24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
         <v>260</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="16">
         <v>266</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="16">
         <v>311</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="16">
         <v>322</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="20">
         <v>338</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="20">
         <v>355</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="20">
         <v>371</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="20">
         <v>385</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
         <v>115</v>
       </c>
@@ -3303,7 +3303,7 @@
       <c r="E37" s="22"/>
       <c r="F37" s="23"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="16">
         <v>429</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="16">
         <v>441</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="16">
         <v>490</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="20">
         <v>516</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="16">
         <v>523</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="16">
         <v>543</v>
       </c>
@@ -3420,26 +3420,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80E785F-0673-4740-B776-36D78552941A}">
   <dimension ref="B1:F28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="46.5546875" customWidth="1"/>
-    <col min="6" max="6" width="39.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="63" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>67</v>
       </c>
@@ -3456,16 +3456,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="60" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="16">
         <v>26</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>33</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>34</v>
       </c>
@@ -3516,24 +3516,24 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="66">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="60">
         <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="66" t="s">
+      <c r="D7" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="61" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>49</v>
       </c>
@@ -3550,42 +3550,42 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="66">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="60">
         <v>56</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="66" t="s">
+      <c r="D9" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="60" t="s">
         <v>164</v>
       </c>
       <c r="F9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="60" t="s">
         <v>86</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="66">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="60">
         <v>69</v>
       </c>
       <c r="C11" t="s">
@@ -3595,8 +3595,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="66">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="60">
         <v>80</v>
       </c>
       <c r="C12" t="s">
@@ -3608,16 +3608,16 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="60" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>80</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <v>88</v>
       </c>
@@ -3651,23 +3651,23 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="67"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="C17" s="3"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
         <v>107</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
         <v>109</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
         <v>114</v>
       </c>
@@ -3718,56 +3718,56 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="20"/>
       <c r="C21" s="3"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
       <c r="C23" s="3"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
       <c r="C24" s="3"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
       <c r="C25" s="3"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="20"/>
       <c r="C26" s="3"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="16"/>
       <c r="C27" s="3"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="16"/>
       <c r="C28" s="3"/>
       <c r="D28" s="16"/>
@@ -3775,11 +3775,12 @@
       <c r="F28" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3793,13 +3794,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.88671875" customWidth="1"/>
-    <col min="3" max="3" width="132.21875" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="132.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -3810,7 +3811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3821,7 +3822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -3832,7 +3833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -3865,7 +3866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -3876,7 +3877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -3898,7 +3899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -3907,7 +3908,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -3918,7 +3919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>35</v>
       </c>
@@ -3929,7 +3930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>39</v>
       </c>
@@ -3940,7 +3941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>41</v>
       </c>
@@ -3949,7 +3950,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>43</v>
       </c>
@@ -3958,7 +3959,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -3980,7 +3981,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>64</v>
       </c>
@@ -3991,7 +3992,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>39</v>
       </c>
@@ -4000,7 +4001,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>97</v>
       </c>
@@ -4011,7 +4012,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
         <v>104</v>
       </c>

--- a/lignes.xlsx
+++ b/lignes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador.000\GitHub\PIR-7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsraelPapuchis\OneDrive\INSA\3TC\2do_semestre\PTIR\PIR-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BBB13C-D171-47BC-9DAE-55E05992CD4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66021ADF-548C-46F6-BABC-7819ACEDE896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{86F50E36-EC87-49B0-9046-7AED0F72F870}"/>
+    <workbookView xWindow="13800" yWindow="0" windowWidth="9240" windowHeight="9024" activeTab="1" xr2:uid="{86F50E36-EC87-49B0-9046-7AED0F72F870}"/>
   </bookViews>
   <sheets>
     <sheet name="UE" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="192">
   <si>
     <t>Description</t>
   </si>
@@ -614,9 +614,6 @@
     <t>S1SetupRequest</t>
   </si>
   <si>
-    <t>DownlinkNASTransport (ACK)</t>
-  </si>
-  <si>
     <t>P-GW</t>
   </si>
   <si>
@@ -660,6 +657,54 @@
   </si>
   <si>
     <t>SRB1 - rnti=0x4a - Tx securityModeCommand (4 B)</t>
+  </si>
+  <si>
+    <t>SRB1 - Rx securityModeComplete (2 B)</t>
+  </si>
+  <si>
+    <t>Sending InitialContextSetupResponse for rnti=0x4a</t>
+  </si>
+  <si>
+    <t>InitialContextSetupResponse</t>
+  </si>
+  <si>
+    <t>SRB1 - rnti=0x4a - Tx rrcConnectionReconfiguration (97 B)</t>
+  </si>
+  <si>
+    <t>SRB1 - Rx rrcConnectionReconfigurationComplete (2 B)</t>
+  </si>
+  <si>
+    <t>SRB2 - Rx ulInformationTransfer (16 B)</t>
+  </si>
+  <si>
+    <t>SRB2 - rnti=0x4a - Tx dlInformationTransfer (47 B)</t>
+  </si>
+  <si>
+    <t>SRB2 - Rx ulInformationTransfer (24 B)</t>
+  </si>
+  <si>
+    <t>SRB2 - Rx dlInformationTransfer (47 B)</t>
+  </si>
+  <si>
+    <t>EMM Information</t>
+  </si>
+  <si>
+    <t>Received UEContextReleaseCommand</t>
+  </si>
+  <si>
+    <t>Rx rrcConnectionRequest (6 B)</t>
+  </si>
+  <si>
+    <t>SRB1 - Rx rrcConnectionSetupComplete (35 B)</t>
+  </si>
+  <si>
+    <t>DownlinkNASTransport (Authentification request)</t>
+  </si>
+  <si>
+    <t>Sending UplinkNASTransport for RNTI:0x4a</t>
+  </si>
+  <si>
+    <t>Received DownlinkNASTransport</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1085,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1065,7 +1110,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1361,28 +1406,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3774E4-E860-4C87-9E58-933E83AB5432}">
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView topLeftCell="U4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="70.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" customWidth="1"/>
-    <col min="14" max="14" width="47.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
-    <col min="17" max="17" width="40.28515625" customWidth="1"/>
-    <col min="21" max="21" width="48.7109375" customWidth="1"/>
-    <col min="24" max="24" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="42.88671875" customWidth="1"/>
+    <col min="14" max="14" width="47.77734375" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" customWidth="1"/>
+    <col min="17" max="17" width="40.33203125" customWidth="1"/>
+    <col min="21" max="21" width="48.6640625" customWidth="1"/>
+    <col min="24" max="24" width="39.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
         <v>126</v>
       </c>
@@ -1411,7 +1456,7 @@
       <c r="W1" s="69"/>
       <c r="X1" s="70"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>67</v>
       </c>
@@ -1470,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>15</v>
       </c>
@@ -1503,7 +1548,7 @@
       <c r="W3" s="66"/>
       <c r="X3" s="67"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="29">
         <v>17</v>
       </c>
@@ -1560,7 +1605,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="33">
         <v>18</v>
       </c>
@@ -1617,7 +1662,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="37">
         <v>19</v>
       </c>
@@ -1674,7 +1719,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="35">
         <v>74</v>
       </c>
@@ -1731,7 +1776,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="37">
         <v>76</v>
       </c>
@@ -1778,7 +1823,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="39">
         <v>84</v>
       </c>
@@ -1809,7 +1854,7 @@
       <c r="W9" s="66"/>
       <c r="X9" s="67"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="43">
         <v>85</v>
       </c>
@@ -1864,7 +1909,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="43">
         <v>193</v>
       </c>
@@ -1919,7 +1964,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="39">
         <v>194</v>
       </c>
@@ -1950,7 +1995,7 @@
       <c r="W12" s="66"/>
       <c r="X12" s="67"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="45">
         <v>265</v>
       </c>
@@ -2005,7 +2050,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="48">
         <v>318</v>
       </c>
@@ -2060,7 +2105,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="48">
         <v>321</v>
       </c>
@@ -2115,7 +2160,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="50">
         <v>376</v>
       </c>
@@ -2170,7 +2215,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="50">
         <v>384</v>
       </c>
@@ -2225,7 +2270,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="55">
         <v>430</v>
       </c>
@@ -2280,7 +2325,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>530</v>
       </c>
@@ -2335,7 +2380,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="27">
         <v>542</v>
       </c>
@@ -2390,7 +2435,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="39">
         <v>552</v>
       </c>
@@ -2445,7 +2490,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
         <v>553</v>
       </c>
@@ -2476,7 +2521,7 @@
       <c r="W22" s="66"/>
       <c r="X22" s="67"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="27">
         <v>554</v>
       </c>
@@ -2531,7 +2576,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2582,7 +2627,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F25" s="16">
         <v>490</v>
       </c>
@@ -2629,7 +2674,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F26" s="20">
         <v>516</v>
       </c>
@@ -2676,7 +2721,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F27" s="16">
         <v>523</v>
       </c>
@@ -2723,7 +2768,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F28" s="16">
         <v>543</v>
       </c>
@@ -2768,6 +2813,23 @@
       </c>
       <c r="X28" s="3" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T29" s="60">
+        <v>673</v>
+      </c>
+      <c r="U29" t="s">
+        <v>184</v>
+      </c>
+      <c r="V29" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="W29" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="X29" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2796,19 +2858,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117DF1EA-6BE1-4C7F-B199-5CE7D0551E2C}">
-  <dimension ref="B1:F43"/>
+  <dimension ref="B1:F52"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="6" max="6" width="44.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" s="68" t="s">
         <v>129</v>
       </c>
@@ -2817,7 +2879,7 @@
       <c r="E1" s="69"/>
       <c r="F1" s="70"/>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>67</v>
       </c>
@@ -2834,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="65" t="s">
         <v>113</v>
       </c>
@@ -2843,7 +2905,7 @@
       <c r="E3" s="66"/>
       <c r="F3" s="67"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
         <v>12</v>
       </c>
@@ -2860,7 +2922,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="16">
         <v>63</v>
       </c>
@@ -2877,7 +2939,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>180</v>
       </c>
@@ -2894,7 +2956,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>184</v>
       </c>
@@ -2911,14 +2973,14 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="16"/>
       <c r="C8" s="3"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="65" t="s">
         <v>74</v>
       </c>
@@ -2927,12 +2989,12 @@
       <c r="E9" s="66"/>
       <c r="F9" s="67"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
-        <v>5810</v>
+        <v>5812</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>56</v>
@@ -2944,7 +3006,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>6232</v>
       </c>
@@ -2961,7 +3023,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="65" t="s">
         <v>75</v>
       </c>
@@ -2970,12 +3032,12 @@
       <c r="E12" s="66"/>
       <c r="F12" s="67"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="16">
         <v>8318</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>56</v>
@@ -2987,7 +3049,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="60">
         <v>8348</v>
       </c>
@@ -3004,7 +3066,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="60">
         <v>8354</v>
       </c>
@@ -3018,10 +3080,10 @@
         <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="60">
         <v>8358</v>
       </c>
@@ -3038,12 +3100,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="60">
         <v>8604</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="60" t="s">
         <v>56</v>
@@ -3055,355 +3117,372 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="63">
         <v>8628</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="62">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="60">
+        <v>8630</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="60">
+        <v>8639</v>
+      </c>
+      <c r="C20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="62">
         <v>8640</v>
       </c>
-      <c r="C19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="62">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="62">
         <v>8889</v>
       </c>
-      <c r="C20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="62">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="62">
         <v>8925</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="62">
+        <v>9172</v>
+      </c>
+      <c r="C24" t="s">
         <v>173</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="D24" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="62">
+        <v>9233</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="62">
+        <v>9266</v>
+      </c>
+      <c r="C26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="62">
-        <v>9172</v>
-      </c>
-      <c r="C22" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="3" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="62">
+        <v>9503</v>
+      </c>
+      <c r="C27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="62">
-        <v>9233</v>
-      </c>
-      <c r="C23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="62" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="62">
+        <v>9524</v>
+      </c>
+      <c r="C28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="62">
-        <v>9266</v>
-      </c>
-      <c r="C24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="16">
-        <v>260</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="16">
-        <v>266</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="16">
-        <v>311</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>56</v>
+      <c r="F28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="62">
+        <v>9570</v>
+      </c>
+      <c r="C29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="62">
+        <v>10004</v>
+      </c>
+      <c r="C30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="62">
+        <v>10058</v>
+      </c>
+      <c r="C31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>57</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="16">
-        <v>322</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="20">
-        <v>338</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="20">
-        <v>355</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="20">
-        <v>371</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="20">
-        <v>385</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="16">
-        <v>429</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="16">
-        <v>441</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="16">
-        <v>490</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="20">
-        <v>516</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="16">
-        <v>523</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="16">
-        <v>543</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="3" t="s">
         <v>90</v>
       </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="62">
+        <v>11230</v>
+      </c>
+      <c r="C33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="62">
+        <v>21255</v>
+      </c>
+      <c r="C34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="16"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="16"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="16"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="16"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="20"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="20"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="20"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="20"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="16"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="16"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="19"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="16"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="19"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="20"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="19"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="16"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="16"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3420,17 +3499,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80E785F-0673-4740-B776-36D78552941A}">
   <dimension ref="B1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="46.5703125" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.5546875" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" s="68" t="s">
         <v>130</v>
       </c>
@@ -3439,7 +3518,7 @@
       <c r="E1" s="69"/>
       <c r="F1" s="70"/>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>67</v>
       </c>
@@ -3456,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="65" t="s">
         <v>113</v>
       </c>
@@ -3465,7 +3544,7 @@
       <c r="E3" s="66"/>
       <c r="F3" s="67"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
         <v>26</v>
       </c>
@@ -3482,7 +3561,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="16">
         <v>33</v>
       </c>
@@ -3499,7 +3578,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>34</v>
       </c>
@@ -3516,24 +3595,24 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="60">
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="60" t="s">
         <v>86</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F7" s="61" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>49</v>
       </c>
@@ -3541,7 +3620,7 @@
         <v>149</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>86</v>
@@ -3550,24 +3629,24 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="60">
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" s="60" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
         <v>58</v>
       </c>
@@ -3575,7 +3654,7 @@
         <v>149</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" s="60" t="s">
         <v>86</v>
@@ -3584,18 +3663,18 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="60">
         <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="60">
         <v>80</v>
       </c>
@@ -3608,7 +3687,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="65" t="s">
         <v>74</v>
       </c>
@@ -3617,7 +3696,7 @@
       <c r="E13" s="66"/>
       <c r="F13" s="67"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="16">
         <v>80</v>
       </c>
@@ -3634,7 +3713,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="16">
         <v>88</v>
       </c>
@@ -3645,34 +3724,34 @@
         <v>86</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="65" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="67"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="16"/>
       <c r="C17" s="3"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="16">
         <v>107</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>86</v>
@@ -3681,10 +3760,10 @@
         <v>57</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="16">
         <v>109</v>
       </c>
@@ -3701,7 +3780,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="16">
         <v>114</v>
       </c>
@@ -3718,56 +3797,56 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="20"/>
       <c r="C21" s="3"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="65"/>
       <c r="C22" s="66"/>
       <c r="D22" s="66"/>
       <c r="E22" s="66"/>
       <c r="F22" s="67"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
       <c r="C23" s="3"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="16"/>
       <c r="C24" s="3"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="16"/>
       <c r="C25" s="3"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="20"/>
       <c r="C26" s="3"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="16"/>
       <c r="C27" s="3"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="16"/>
       <c r="C28" s="3"/>
       <c r="D28" s="16"/>
@@ -3775,12 +3854,11 @@
       <c r="F28" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3794,13 +3872,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="3" width="132.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
+    <col min="3" max="3" width="132.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -3811,7 +3889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3822,7 +3900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -3833,7 +3911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -3844,7 +3922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -3855,7 +3933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -3866,7 +3944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -3877,7 +3955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -3888,7 +3966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -3899,7 +3977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -3908,7 +3986,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -3919,7 +3997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>35</v>
       </c>
@@ -3930,7 +4008,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>39</v>
       </c>
@@ -3941,7 +4019,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>41</v>
       </c>
@@ -3950,7 +4028,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>43</v>
       </c>
@@ -3959,7 +4037,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -3970,7 +4048,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -3981,7 +4059,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>64</v>
       </c>
@@ -3992,7 +4070,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>39</v>
       </c>
@@ -4001,7 +4079,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>97</v>
       </c>
@@ -4012,7 +4090,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="59" t="s">
         <v>104</v>
       </c>

--- a/lignes.xlsx
+++ b/lignes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsraelPapuchis\OneDrive\INSA\3TC\2do_semestre\PTIR\PIR-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66021ADF-548C-46F6-BABC-7819ACEDE896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2F8585-0CE6-4D4A-8040-79B6E2D765CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13800" yWindow="0" windowWidth="9240" windowHeight="9024" activeTab="1" xr2:uid="{86F50E36-EC87-49B0-9046-7AED0F72F870}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="197">
   <si>
     <t>Description</t>
   </si>
@@ -560,15 +560,9 @@
     <t>SRB1 - rnti=0x4a - Tx dlInformationTransfer (7 B)</t>
   </si>
   <si>
-    <t>Received S1AP msg. Size: 49</t>
-  </si>
-  <si>
     <t>Sending S1 Setup Response</t>
   </si>
   <si>
-    <t>Received S1AP msg. Size: 87</t>
-  </si>
-  <si>
     <t>S1 Setup Request</t>
   </si>
   <si>
@@ -578,18 +572,12 @@
     <t>Initial UE Message(Attach request)</t>
   </si>
   <si>
-    <t>Received S1AP msg. Size: 57</t>
-  </si>
-  <si>
     <t>Received Identity Response</t>
   </si>
   <si>
     <t>Received Authentication Response</t>
   </si>
   <si>
-    <t>Received S1AP msg. Size: 54</t>
-  </si>
-  <si>
     <t>Received Security Mode Complete</t>
   </si>
   <si>
@@ -599,12 +587,6 @@
     <t>Create Session Request</t>
   </si>
   <si>
-    <t>Received S1AP msg. Size: 59</t>
-  </si>
-  <si>
-    <t>Received S1AP msg. Size: 38</t>
-  </si>
-  <si>
     <t>Initial Context Setup Response</t>
   </si>
   <si>
@@ -644,9 +626,6 @@
     <t>SRB1 - rnti=0x4a - Tx dlInformationTransfer (40 B)</t>
   </si>
   <si>
-    <t>Received RRC SDU</t>
-  </si>
-  <si>
     <t>SRB1 - rnti=0x4a - Tx dlInformationTransfer (17 B)</t>
   </si>
   <si>
@@ -705,6 +684,42 @@
   </si>
   <si>
     <t>Received DownlinkNASTransport</t>
+  </si>
+  <si>
+    <t>Attach and authentification</t>
+  </si>
+  <si>
+    <t>Received S1 Setup Request.</t>
+  </si>
+  <si>
+    <t>Received Initial UE Message.</t>
+  </si>
+  <si>
+    <t>UL NAS: Received Identity Response</t>
+  </si>
+  <si>
+    <t>UL NAS: Received Authentication Response</t>
+  </si>
+  <si>
+    <t>UL NAS: Received Security Mode Complete</t>
+  </si>
+  <si>
+    <t>Received Initial Context Setup Response.</t>
+  </si>
+  <si>
+    <t>UL NAS: Received Attach Complete</t>
+  </si>
+  <si>
+    <t>Identity response (ACK)</t>
+  </si>
+  <si>
+    <t>Sending UplinkNASTransport for rnti=0x4a</t>
+  </si>
+  <si>
+    <t>Authentication Response(ACK)</t>
+  </si>
+  <si>
+    <t>Received InitialContextSetupRequest</t>
   </si>
 </sst>
 </file>
@@ -854,7 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,7 +950,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -979,15 +994,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1057,14 +1063,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1074,14 +1081,19 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1408,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3774E4-E860-4C87-9E58-933E83AB5432}">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,33 +1440,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="F1" s="68" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="F1" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
-      <c r="M1" s="68" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
+      <c r="M1" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="70"/>
-      <c r="T1" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="70"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="60"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="60"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -1499,60 +1509,48 @@
       <c r="Q2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="24">
+      <c r="A3" s="21">
         <v>15</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="F3" s="65" t="s">
+      <c r="D3" s="23"/>
+      <c r="F3" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
-      <c r="M3" s="65" t="s">
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63"/>
+      <c r="M3" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
-      <c r="T3" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="67"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="63"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
+      <c r="A4" s="26">
         <v>17</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1589,27 +1587,17 @@
       <c r="Q4" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="16">
-        <v>32</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="V4" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="W4" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="X4" s="19" t="s">
-        <v>112</v>
-      </c>
+      <c r="T4" s="16"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="19"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="33">
+      <c r="A5" s="30">
         <v>18</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1646,33 +1634,23 @@
       <c r="Q5" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="T5" s="16">
-        <v>66</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="V5" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="W5" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="X5" s="19" t="s">
-        <v>109</v>
-      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="19"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="37">
+      <c r="A6" s="34">
         <v>19</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="35"/>
       <c r="F6" s="16">
         <v>70</v>
       </c>
@@ -1703,33 +1681,23 @@
       <c r="Q6" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="T6" s="16">
-        <v>70</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="V6" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="W6" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>108</v>
-      </c>
+      <c r="T6" s="16"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="35">
+      <c r="A7" s="32">
         <v>74</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="33"/>
       <c r="F7" s="16">
         <v>110</v>
       </c>
@@ -1760,31 +1728,21 @@
       <c r="Q7" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="T7" s="16">
-        <v>110</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="V7" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="W7" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="T7" s="16"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="3"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="37">
+      <c r="A8" s="34">
         <v>76</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="F8" s="16">
         <v>114</v>
       </c>
@@ -1807,62 +1765,50 @@
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="3"/>
-      <c r="T8" s="16">
-        <v>114</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="V8" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="W8" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="T8" s="16"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="39">
+      <c r="A9" s="36">
         <v>84</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="F9" s="65" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="F9" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
-      <c r="M9" s="65" t="s">
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
+      <c r="M9" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="67"/>
-      <c r="T9" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="67"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="63"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="63"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="43">
+      <c r="A10" s="40">
         <v>85</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
       <c r="F10" s="16">
         <v>134</v>
       </c>
@@ -1893,31 +1839,21 @@
       <c r="Q10" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="T10" s="16">
-        <v>134</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V10" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="W10" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="X10" s="19" t="s">
-        <v>110</v>
-      </c>
+      <c r="T10" s="16"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="19"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="43">
+      <c r="A11" s="40">
         <v>193</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="F11" s="16">
         <v>169</v>
       </c>
@@ -1948,62 +1884,50 @@
       <c r="Q11" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="T11" s="16">
-        <v>169</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="V11" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="W11" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="X11" s="19" t="s">
-        <v>111</v>
-      </c>
+      <c r="T11" s="16"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="19"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="39">
+      <c r="A12" s="36">
         <v>194</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="F12" s="65" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="F12" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
-      <c r="M12" s="65" t="s">
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
+      <c r="M12" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="67"/>
-      <c r="T12" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="67"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="63"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="63"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="45">
+      <c r="A13" s="42">
         <v>265</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
       <c r="F13" s="16">
         <v>186</v>
       </c>
@@ -2034,27 +1958,17 @@
       <c r="Q13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="T13" s="16">
-        <v>186</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V13" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="W13" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="T13" s="16"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="3"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="48">
+      <c r="A14" s="45">
         <v>318</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="46" t="s">
         <v>123</v>
       </c>
       <c r="C14" s="11"/>
@@ -2089,27 +2003,17 @@
       <c r="Q14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="T14" s="16">
-        <v>260</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="V14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="W14" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="T14" s="16"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="3"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="48">
+      <c r="A15" s="45">
         <v>321</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>124</v>
       </c>
       <c r="C15" s="11"/>
@@ -2144,31 +2048,21 @@
       <c r="Q15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="T15" s="16">
-        <v>266</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="W15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="T15" s="16"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="50">
+      <c r="A16" s="47">
         <v>376</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
       <c r="F16" s="16">
         <v>311</v>
       </c>
@@ -2199,31 +2093,21 @@
       <c r="Q16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="T16" s="16">
-        <v>311</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="V16" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="T16" s="16"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="3"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="50">
+      <c r="A17" s="47">
         <v>384</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
       <c r="F17" s="16">
         <v>322</v>
       </c>
@@ -2254,31 +2138,21 @@
       <c r="Q17" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="T17" s="16">
-        <v>322</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="V17" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="W17" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="T17" s="16"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="3"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="55">
+      <c r="A18" s="52">
         <v>430</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
       <c r="F18" s="20">
         <v>338</v>
       </c>
@@ -2309,31 +2183,21 @@
       <c r="Q18" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="T18" s="20">
-        <v>338</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="V18" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="W18" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="T18" s="20"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="3"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
+      <c r="A19" s="21">
         <v>530</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
       <c r="F19" s="20">
         <v>355</v>
       </c>
@@ -2364,31 +2228,21 @@
       <c r="Q19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="T19" s="20">
-        <v>355</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="W19" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="T19" s="20"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="3"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
+      <c r="A20" s="24">
         <v>542</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="23"/>
       <c r="F20" s="20">
         <v>371</v>
       </c>
@@ -2419,30 +2273,20 @@
       <c r="Q20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T20" s="20">
-        <v>371</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="V20" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="W20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="T20" s="20"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="3"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="39">
+      <c r="A21" s="36">
         <v>552</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="41"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="12"/>
       <c r="F21" s="20">
         <v>385</v>
@@ -2474,62 +2318,50 @@
       <c r="Q21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="T21" s="20">
-        <v>385</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="V21" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="W21" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="T21" s="20"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="3"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="31">
+      <c r="A22" s="28">
         <v>553</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="2"/>
-      <c r="F22" s="65" t="s">
+      <c r="F22" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="67"/>
-      <c r="M22" s="65" t="s">
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
+      <c r="M22" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="67"/>
-      <c r="T22" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="67"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="63"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="63"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="27">
+      <c r="A23" s="24">
         <v>554</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="26"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="23"/>
       <c r="F23" s="16">
         <v>429</v>
       </c>
@@ -2560,21 +2392,11 @@
       <c r="Q23" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="T23" s="16">
-        <v>429</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="V23" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="W23" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="X23" s="19" t="s">
-        <v>91</v>
-      </c>
+      <c r="T23" s="16"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="19"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
@@ -2611,21 +2433,11 @@
       <c r="Q24" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="T24" s="16">
-        <v>441</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="V24" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="W24" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="X24" s="19" t="s">
-        <v>92</v>
-      </c>
+      <c r="T24" s="16"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="19"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F25" s="16">
@@ -2658,21 +2470,11 @@
       <c r="Q25" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="T25" s="16">
-        <v>490</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="W25" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="X25" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="T25" s="16"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="19"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F26" s="20">
@@ -2705,21 +2507,11 @@
       <c r="Q26" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="T26" s="20">
-        <v>516</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V26" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="W26" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="X26" s="19" t="s">
-        <v>94</v>
-      </c>
+      <c r="T26" s="20"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="19"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F27" s="16">
@@ -2752,21 +2544,11 @@
       <c r="Q27" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="T27" s="16">
-        <v>523</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="V27" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="W27" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="T27" s="16"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="3"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F28" s="16">
@@ -2799,37 +2581,27 @@
       <c r="Q28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="T28" s="16">
-        <v>543</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="V28" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="W28" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="T28" s="16"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="3"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="T29" s="60">
+      <c r="F29" s="57">
         <v>673</v>
       </c>
-      <c r="U29" t="s">
-        <v>184</v>
-      </c>
-      <c r="V29" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="W29" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="X29" t="s">
-        <v>185</v>
+      <c r="G29" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2858,10 +2630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117DF1EA-6BE1-4C7F-B199-5CE7D0551E2C}">
-  <dimension ref="B1:F52"/>
+  <dimension ref="B1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2871,13 +2643,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
@@ -2897,13 +2669,13 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
@@ -2953,7 +2725,7 @@
         <v>86</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -2974,233 +2746,250 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="67"/>
+      <c r="B9" s="16">
+        <v>5812</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
-        <v>5812</v>
+        <v>6232</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>57</v>
+        <v>138</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
-        <v>6232</v>
+        <v>8318</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>111</v>
+        <v>57</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
+      <c r="B12" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="16">
-        <v>8318</v>
+      <c r="B13" s="20">
+        <v>8348</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>57</v>
+        <v>140</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="60">
-        <v>8348</v>
-      </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="60" t="s">
+      <c r="B14" s="20">
+        <v>8354</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s">
-        <v>141</v>
+      <c r="E14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="60">
-        <v>8354</v>
-      </c>
-      <c r="C15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="60" t="s">
+      <c r="B15" s="20">
+        <v>8358</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="20">
+        <v>8604</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="20">
+        <v>8630</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>86</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="60">
-        <v>8358</v>
-      </c>
-      <c r="C16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="60">
-        <v>8604</v>
-      </c>
-      <c r="C17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="60" t="s">
-        <v>57</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="63">
-        <v>8628</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
+      <c r="B18" s="20">
+        <v>8639</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="60">
-        <v>8630</v>
-      </c>
-      <c r="C19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="60" t="s">
+      <c r="B19" s="20">
+        <v>8640</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="20">
+        <v>8889</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="20">
+        <v>8918</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="60">
-        <v>8639</v>
-      </c>
-      <c r="C20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D20" s="62" t="s">
+      <c r="F21" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="20">
+        <v>8924</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="62">
-        <v>8640</v>
-      </c>
-      <c r="C21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="62">
-        <v>8889</v>
-      </c>
-      <c r="C22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="20" t="s">
         <v>57</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="62">
+      <c r="B23" s="20">
         <v>8925</v>
       </c>
-      <c r="C23" t="s">
-        <v>172</v>
+      <c r="C23" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>57</v>
@@ -3213,16 +3002,16 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="62">
+      <c r="B24" s="20">
         <v>9172</v>
       </c>
-      <c r="C24" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="62" t="s">
+      <c r="C24" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>57</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -3230,265 +3019,193 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="62">
-        <v>9233</v>
-      </c>
-      <c r="C25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="62" t="s">
+      <c r="B25" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="20">
+        <v>9236</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E26" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="20">
+        <v>9266</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="20">
+        <v>9503</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="20">
+        <v>9524</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="20">
+        <v>9570</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="20">
+        <v>10004</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="20">
+        <v>10058</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="62">
-        <v>9266</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D32" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="69">
+        <v>11229</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="67"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="20">
+        <v>11230</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="62">
-        <v>9503</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D35" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="20">
+        <v>21255</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="62">
-        <v>9524</v>
-      </c>
-      <c r="C28" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="62">
-        <v>9570</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D36" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D29" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="62">
-        <v>10004</v>
-      </c>
-      <c r="C30" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="62">
-        <v>10058</v>
-      </c>
-      <c r="C31" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="62">
-        <v>11230</v>
-      </c>
-      <c r="C33" t="s">
-        <v>182</v>
-      </c>
-      <c r="D33" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="62" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="62">
-        <v>21255</v>
-      </c>
-      <c r="C34" t="s">
-        <v>183</v>
-      </c>
-      <c r="D34" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="16"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="16"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="16"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="20"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="20"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="20"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="20"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="16"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="19"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="16"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="19"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="16"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="19"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="20"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="19"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="16"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="16"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="B25:F25"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B8:F8"/>
     <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3497,10 +3214,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80E785F-0673-4740-B776-36D78552941A}">
-  <dimension ref="B1:F28"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3510,13 +3227,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
@@ -3536,20 +3253,20 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
+      <c r="B3" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>57</v>
@@ -3558,7 +3275,7 @@
         <v>86</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -3566,7 +3283,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>86</v>
@@ -3575,15 +3292,15 @@
         <v>57</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>57</v>
@@ -3592,273 +3309,193 @@
         <v>86</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="60">
+      <c r="B7" s="20">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="60" t="s">
+      <c r="C7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="61" t="s">
+      <c r="E7" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>149</v>
+        <v>53</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="60">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="60" t="s">
+      <c r="B9" s="20">
+        <v>56</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" t="s">
-        <v>165</v>
+      <c r="E9" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="20">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="20">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="60">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="60">
-        <v>80</v>
-      </c>
-      <c r="C12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67"/>
+      <c r="B13" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="16">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>86</v>
       </c>
+      <c r="E14" s="16" t="s">
+        <v>155</v>
+      </c>
       <c r="F14" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="16">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>155</v>
+        <v>57</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
+      <c r="B16" s="16">
+        <v>111</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="16">
-        <v>107</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="B17" s="16">
+        <v>119</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="16">
-        <v>109</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="16">
-        <v>114</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="16"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="16"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="20"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="16"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4091,7 +3728,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="56" t="s">
         <v>104</v>
       </c>
       <c r="B21" s="3" t="s">

--- a/lignes.xlsx
+++ b/lignes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsraelPapuchis\OneDrive\INSA\3TC\2do_semestre\PTIR\PIR-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2F8585-0CE6-4D4A-8040-79B6E2D765CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629A5BB0-DA6C-464C-9F20-660D5EBFB689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="0" windowWidth="9240" windowHeight="9024" activeTab="1" xr2:uid="{86F50E36-EC87-49B0-9046-7AED0F72F870}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{86F50E36-EC87-49B0-9046-7AED0F72F870}"/>
   </bookViews>
   <sheets>
     <sheet name="UE" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="200">
   <si>
     <t>Description</t>
   </si>
@@ -602,9 +602,6 @@
     <t>Packing Identity Request</t>
   </si>
   <si>
-    <t>HSS</t>
-  </si>
-  <si>
     <t>Packing Authentication Request</t>
   </si>
   <si>
@@ -677,15 +674,9 @@
     <t>SRB1 - Rx rrcConnectionSetupComplete (35 B)</t>
   </si>
   <si>
-    <t>DownlinkNASTransport (Authentification request)</t>
-  </si>
-  <si>
     <t>Sending UplinkNASTransport for RNTI:0x4a</t>
   </si>
   <si>
-    <t>Received DownlinkNASTransport</t>
-  </si>
-  <si>
     <t>Attach and authentification</t>
   </si>
   <si>
@@ -710,16 +701,34 @@
     <t>UL NAS: Received Attach Complete</t>
   </si>
   <si>
-    <t>Identity response (ACK)</t>
-  </si>
-  <si>
     <t>Sending UplinkNASTransport for rnti=0x4a</t>
   </si>
   <si>
-    <t>Authentication Response(ACK)</t>
-  </si>
-  <si>
     <t>Received InitialContextSetupRequest</t>
+  </si>
+  <si>
+    <t>Sending EMM Information</t>
+  </si>
+  <si>
+    <t>SRB2 - Tx ulInformationTransfer (24 B)</t>
+  </si>
+  <si>
+    <t>Sending detach request</t>
+  </si>
+  <si>
+    <t>Received UE Context Release Complete</t>
+  </si>
+  <si>
+    <t>Detach</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>UE EMM Information</t>
+  </si>
+  <si>
+    <t>Cell Search</t>
   </si>
 </sst>
 </file>
@@ -874,7 +883,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -934,23 +943,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1060,9 +1058,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1093,6 +1088,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1418,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3774E4-E860-4C87-9E58-933E83AB5432}">
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:J9"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1440,31 +1447,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="F1" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
-      <c r="M1" s="58" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59"/>
+      <c r="M1" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="60"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="59"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="59"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -1526,25 +1533,25 @@
         <v>69</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
-      <c r="M3" s="61" t="s">
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="M3" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="63"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="63"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="62"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="62"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="26">
@@ -1780,25 +1787,25 @@
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
-      <c r="M9" s="61" t="s">
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
+      <c r="M9" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="63"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="63"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="62"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="62"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="40">
@@ -1899,25 +1906,25 @@
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="63"/>
-      <c r="M12" s="61" t="s">
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+      <c r="M12" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="63"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="63"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="62"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="62"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="42">
@@ -2154,19 +2161,19 @@
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
       <c r="F18" s="20">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="M18" s="20">
         <v>338</v>
@@ -2199,19 +2206,19 @@
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="F19" s="20">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="M19" s="20">
         <v>355</v>
@@ -2243,21 +2250,13 @@
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="23"/>
-      <c r="F20" s="20">
-        <v>371</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="F20" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
       <c r="M20" s="20">
         <v>371</v>
       </c>
@@ -2288,20 +2287,20 @@
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="12"/>
-      <c r="F21" s="20">
-        <v>385</v>
+      <c r="F21" s="16">
+        <v>429</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>92</v>
+        <v>56</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="M21" s="20">
         <v>385</v>
@@ -2333,25 +2332,33 @@
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="2"/>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="16">
+        <v>441</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="M22" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="63"/>
-      <c r="M22" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="63"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="63"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="62"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="62"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
@@ -2363,10 +2370,10 @@
       <c r="C23" s="25"/>
       <c r="D23" s="23"/>
       <c r="F23" s="16">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="H23" s="16" t="s">
         <v>57</v>
@@ -2375,7 +2382,7 @@
         <v>56</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M23" s="16">
         <v>429</v>
@@ -2403,20 +2410,20 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="F24" s="16">
-        <v>441</v>
+      <c r="F24" s="20">
+        <v>516</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="20" t="s">
         <v>57</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M24" s="16">
         <v>441</v>
@@ -2441,10 +2448,10 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F25" s="16">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>57</v>
@@ -2452,8 +2459,8 @@
       <c r="I25" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="19" t="s">
-        <v>93</v>
+      <c r="J25" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="M25" s="16">
         <v>490</v>
@@ -2477,20 +2484,20 @@
       <c r="X25" s="19"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F26" s="20">
-        <v>516</v>
+      <c r="F26" s="16">
+        <v>543</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="16" t="s">
         <v>56</v>
       </c>
       <c r="I26" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="19" t="s">
-        <v>94</v>
+      <c r="J26" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="M26" s="20">
         <v>516</v>
@@ -2514,20 +2521,20 @@
       <c r="X26" s="19"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F27" s="16">
-        <v>523</v>
+      <c r="F27" s="20">
+        <v>673</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>56</v>
+        <v>176</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="M27" s="16">
         <v>523</v>
@@ -2551,21 +2558,6 @@
       <c r="X27" s="3"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F28" s="16">
-        <v>543</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="M28" s="16">
         <v>543</v>
       </c>
@@ -2588,27 +2580,37 @@
       <c r="X28" s="3"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F29" s="57">
-        <v>673</v>
-      </c>
-      <c r="G29" t="s">
-        <v>177</v>
-      </c>
-      <c r="H29" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" t="s">
-        <v>178</v>
+      <c r="F29" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F30" s="20">
+        <v>866</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="F29:J29"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F20:J20"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="T3:X3"/>
     <mergeCell ref="T9:X9"/>
@@ -2630,10 +2632,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117DF1EA-6BE1-4C7F-B199-5CE7D0551E2C}">
-  <dimension ref="B1:F36"/>
+  <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2643,13 +2645,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
@@ -2669,13 +2671,13 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
@@ -2746,20 +2748,20 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>5812</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>56</v>
@@ -2793,7 +2795,7 @@
         <v>8318</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>56</v>
@@ -2806,13 +2808,13 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="B12" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="20">
@@ -2836,7 +2838,7 @@
         <v>8354</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>86</v>
@@ -2845,7 +2847,7 @@
         <v>57</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>182</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -2870,7 +2872,7 @@
         <v>8604</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>56</v>
@@ -2887,7 +2889,7 @@
         <v>8630</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>57</v>
@@ -2904,7 +2906,7 @@
         <v>8639</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>86</v>
@@ -2913,7 +2915,7 @@
         <v>57</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>193</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
@@ -2921,7 +2923,7 @@
         <v>8640</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>57</v>
@@ -2938,7 +2940,7 @@
         <v>8889</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>56</v>
@@ -2955,7 +2957,7 @@
         <v>8918</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>57</v>
@@ -2972,7 +2974,7 @@
         <v>8924</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>86</v>
@@ -2981,7 +2983,7 @@
         <v>57</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
@@ -2989,7 +2991,7 @@
         <v>8925</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>57</v>
@@ -3006,7 +3008,7 @@
         <v>9172</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>56</v>
@@ -3019,20 +3021,20 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="20">
         <v>9236</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>86</v>
@@ -3041,7 +3043,7 @@
         <v>57</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
@@ -3049,7 +3051,7 @@
         <v>9266</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>57</v>
@@ -3066,7 +3068,7 @@
         <v>9503</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>56</v>
@@ -3083,16 +3085,16 @@
         <v>9524</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
@@ -3100,7 +3102,7 @@
         <v>9570</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>57</v>
@@ -3117,7 +3119,7 @@
         <v>10004</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>56</v>
@@ -3134,7 +3136,7 @@
         <v>10058</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>56</v>
@@ -3147,62 +3149,78 @@
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
+      <c r="B33" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="69">
-        <v>11229</v>
-      </c>
-      <c r="C34" s="67" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="67"/>
+      <c r="B34" s="68">
+        <v>11226</v>
+      </c>
+      <c r="C34" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="66" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="20">
         <v>11230</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="20">
+        <v>21255</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D35" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="20">
-        <v>21255</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>179</v>
+      <c r="D38" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B37:F37"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B8:F8"/>
@@ -3214,10 +3232,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80E785F-0673-4740-B776-36D78552941A}">
-  <dimension ref="B1:F17"/>
+  <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3227,13 +3245,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
@@ -3253,20 +3271,20 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
         <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>57</v>
@@ -3296,205 +3314,259 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="16">
+      <c r="B6" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="16">
         <v>36</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="C7" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="20">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="20">
         <v>48</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="D8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="16">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="20">
+        <v>56</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="16">
-        <v>53</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="20">
-        <v>56</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D10" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="16">
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="16">
         <v>62</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="20">
-        <v>69</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="20">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="20">
         <v>85</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="64" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="16">
-        <v>88</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>151</v>
-      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="16">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="16">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="16">
+        <v>111</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="16">
         <v>119</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="20">
+        <v>136</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>153</v>
+      <c r="D19" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="20">
+        <v>150</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B22:F22"/>
     <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lignes.xlsx
+++ b/lignes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsraelPapuchis\OneDrive\INSA\3TC\2do_semestre\PTIR\PIR-7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador.000\GitHub\PIR-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629A5BB0-DA6C-464C-9F20-660D5EBFB689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE85F864-D911-4D2A-838F-7ABF4D7F4548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{86F50E36-EC87-49B0-9046-7AED0F72F870}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{86F50E36-EC87-49B0-9046-7AED0F72F870}"/>
   </bookViews>
   <sheets>
     <sheet name="UE" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="201">
   <si>
     <t>Description</t>
   </si>
@@ -729,6 +729,9 @@
   </si>
   <si>
     <t>Cell Search</t>
+  </si>
+  <si>
+    <t>Received S1SetupResponse</t>
   </si>
 </sst>
 </file>
@@ -1058,31 +1061,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1093,6 +1072,30 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1104,7 +1107,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1129,7 +1132,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1431,49 +1434,49 @@
       <selection activeCell="F20" sqref="F20:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="70.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="42.88671875" customWidth="1"/>
-    <col min="14" max="14" width="47.77734375" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" customWidth="1"/>
-    <col min="16" max="16" width="16.5546875" customWidth="1"/>
-    <col min="17" max="17" width="40.33203125" customWidth="1"/>
-    <col min="21" max="21" width="48.6640625" customWidth="1"/>
-    <col min="24" max="24" width="39.21875" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" customWidth="1"/>
+    <col min="14" max="14" width="47.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="40.28515625" customWidth="1"/>
+    <col min="21" max="21" width="48.7109375" customWidth="1"/>
+    <col min="24" max="24" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="F1" s="57" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="F1" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
-      <c r="M1" s="57" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="64"/>
+      <c r="M1" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="59"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="59"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="64"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="64"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>67</v>
       </c>
@@ -1522,7 +1525,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="17"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>15</v>
       </c>
@@ -1533,27 +1536,27 @@
         <v>69</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="M3" s="60" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+      <c r="M3" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="62"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="62"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="67"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>17</v>
       </c>
@@ -1600,7 +1603,7 @@
       <c r="W4" s="20"/>
       <c r="X4" s="19"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>18</v>
       </c>
@@ -1647,7 +1650,7 @@
       <c r="W5" s="20"/>
       <c r="X5" s="19"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>19</v>
       </c>
@@ -1694,7 +1697,7 @@
       <c r="W6" s="20"/>
       <c r="X6" s="19"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
         <v>74</v>
       </c>
@@ -1741,7 +1744,7 @@
       <c r="W7" s="16"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>76</v>
       </c>
@@ -1778,7 +1781,7 @@
       <c r="W8" s="16"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>84</v>
       </c>
@@ -1787,27 +1790,27 @@
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
-      <c r="M9" s="60" t="s">
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="M9" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="62"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="62"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="67"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="67"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>85</v>
       </c>
@@ -1852,7 +1855,7 @@
       <c r="W10" s="20"/>
       <c r="X10" s="19"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>193</v>
       </c>
@@ -1897,7 +1900,7 @@
       <c r="W11" s="16"/>
       <c r="X11" s="19"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>194</v>
       </c>
@@ -1906,27 +1909,27 @@
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
-      <c r="M12" s="60" t="s">
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
+      <c r="M12" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="62"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="62"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="67"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="67"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>265</v>
       </c>
@@ -1971,7 +1974,7 @@
       <c r="W13" s="16"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <v>318</v>
       </c>
@@ -2016,7 +2019,7 @@
       <c r="W14" s="16"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
         <v>321</v>
       </c>
@@ -2061,7 +2064,7 @@
       <c r="W15" s="16"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="47">
         <v>376</v>
       </c>
@@ -2106,7 +2109,7 @@
       <c r="W16" s="16"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="47">
         <v>384</v>
       </c>
@@ -2151,7 +2154,7 @@
       <c r="W17" s="16"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="52">
         <v>430</v>
       </c>
@@ -2196,7 +2199,7 @@
       <c r="W18" s="16"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>530</v>
       </c>
@@ -2241,7 +2244,7 @@
       <c r="W19" s="16"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>542</v>
       </c>
@@ -2250,13 +2253,13 @@
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="23"/>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="62"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="67"/>
       <c r="M20" s="20">
         <v>371</v>
       </c>
@@ -2278,7 +2281,7 @@
       <c r="W20" s="16"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>552</v>
       </c>
@@ -2323,7 +2326,7 @@
       <c r="W21" s="16"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>553</v>
       </c>
@@ -2347,20 +2350,20 @@
       <c r="J22" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="M22" s="60" t="s">
+      <c r="M22" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="62"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="62"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="67"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="67"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>554</v>
       </c>
@@ -2405,7 +2408,7 @@
       <c r="W23" s="16"/>
       <c r="X23" s="19"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2446,7 +2449,7 @@
       <c r="W24" s="16"/>
       <c r="X24" s="19"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F25" s="16">
         <v>523</v>
       </c>
@@ -2483,7 +2486,7 @@
       <c r="W25" s="16"/>
       <c r="X25" s="19"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F26" s="16">
         <v>543</v>
       </c>
@@ -2520,7 +2523,7 @@
       <c r="W26" s="20"/>
       <c r="X26" s="19"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F27" s="20">
         <v>673</v>
       </c>
@@ -2557,7 +2560,7 @@
       <c r="W27" s="16"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M28" s="16">
         <v>543</v>
       </c>
@@ -2579,16 +2582,16 @@
       <c r="W28" s="20"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F29" s="69" t="s">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F29" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F30" s="20">
         <v>866</v>
       </c>
@@ -2607,6 +2610,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F12:J12"/>
     <mergeCell ref="F29:J29"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
@@ -2623,7 +2627,6 @@
     <mergeCell ref="M22:Q22"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2634,26 +2637,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117DF1EA-6BE1-4C7F-B199-5CE7D0551E2C}">
   <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="51.6640625" customWidth="1"/>
-    <col min="6" max="6" width="44.77734375" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="57" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>67</v>
       </c>
@@ -2670,16 +2673,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="63" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="16">
         <v>12</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>63</v>
       </c>
@@ -2713,7 +2716,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>180</v>
       </c>
@@ -2730,12 +2733,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>184</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>86</v>
@@ -2747,16 +2750,16 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="60" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>5812</v>
       </c>
@@ -2773,7 +2776,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>6232</v>
       </c>
@@ -2790,7 +2793,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>8318</v>
       </c>
@@ -2807,16 +2810,16 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="63" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="20">
         <v>8348</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="20">
         <v>8354</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="20">
         <v>8358</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="20">
         <v>8604</v>
       </c>
@@ -2884,7 +2887,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="20">
         <v>8630</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="20">
         <v>8639</v>
       </c>
@@ -2918,7 +2921,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="20">
         <v>8640</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="20">
         <v>8889</v>
       </c>
@@ -2952,7 +2955,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="20">
         <v>8918</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="20">
         <v>8924</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="20">
         <v>8925</v>
       </c>
@@ -3003,7 +3006,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="20">
         <v>9172</v>
       </c>
@@ -3020,16 +3023,16 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="60" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="20">
         <v>9236</v>
       </c>
@@ -3046,7 +3049,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="20">
         <v>9266</v>
       </c>
@@ -3063,7 +3066,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="20">
         <v>9503</v>
       </c>
@@ -3080,7 +3083,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="20">
         <v>9524</v>
       </c>
@@ -3097,7 +3100,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="20">
         <v>9570</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="20">
         <v>10004</v>
       </c>
@@ -3131,7 +3134,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="20">
         <v>10058</v>
       </c>
@@ -3148,33 +3151,33 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="64" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="68">
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="60">
         <v>11226</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="66" t="s">
+      <c r="D34" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="58" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="20">
         <v>11230</v>
       </c>
@@ -3187,20 +3190,20 @@
       <c r="E35" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="66" t="s">
+      <c r="F35" s="58" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="69" t="s">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="20">
         <v>21255</v>
       </c>
@@ -3234,26 +3237,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80E785F-0673-4740-B776-36D78552941A}">
   <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B22" sqref="B22:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="46.5546875" customWidth="1"/>
-    <col min="6" max="6" width="39.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="65" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>67</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="70" t="s">
         <v>199</v>
       </c>
@@ -3279,7 +3282,7 @@
       <c r="E3" s="71"/>
       <c r="F3" s="72"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="16">
         <v>28</v>
       </c>
@@ -3296,7 +3299,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>33</v>
       </c>
@@ -3313,16 +3316,16 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="63" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>36</v>
       </c>
@@ -3339,7 +3342,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="20">
         <v>48</v>
       </c>
@@ -3356,7 +3359,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>53</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="20">
         <v>56</v>
       </c>
@@ -3390,7 +3393,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>62</v>
       </c>
@@ -3407,7 +3410,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="20">
         <v>69</v>
       </c>
@@ -3424,7 +3427,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="20">
         <v>85</v>
       </c>
@@ -3441,16 +3444,16 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="63" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <v>88</v>
       </c>
@@ -3467,7 +3470,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>107</v>
       </c>
@@ -3484,7 +3487,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
         <v>111</v>
       </c>
@@ -3501,7 +3504,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
         <v>119</v>
       </c>
@@ -3518,7 +3521,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="20">
         <v>136</v>
       </c>
@@ -3535,16 +3538,16 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="63" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="20">
         <v>150</v>
       </c>
@@ -3581,13 +3584,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.88671875" customWidth="1"/>
-    <col min="3" max="3" width="132.21875" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="132.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -3598,7 +3601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3609,7 +3612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -3620,7 +3623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -3631,7 +3634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -3642,7 +3645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -3653,7 +3656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -3664,7 +3667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -3686,7 +3689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -3695,7 +3698,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -3706,7 +3709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>35</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>39</v>
       </c>
@@ -3728,7 +3731,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>41</v>
       </c>
@@ -3737,7 +3740,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>43</v>
       </c>
@@ -3746,7 +3749,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -3757,7 +3760,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -3768,7 +3771,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>64</v>
       </c>
@@ -3779,7 +3782,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>39</v>
       </c>
@@ -3788,7 +3791,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>97</v>
       </c>
@@ -3799,7 +3802,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
         <v>104</v>
       </c>
